--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il19-Il20rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il19-Il20rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Il19</t>
+  </si>
+  <si>
+    <t>Il20rb</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il19</t>
-  </si>
-  <si>
-    <t>Il20rb</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.09587233333333334</v>
+        <v>0.0621735</v>
       </c>
       <c r="H2">
-        <v>0.287617</v>
+        <v>0.124347</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3077956989247312</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.689988</v>
+        <v>5.3589275</v>
       </c>
       <c r="N2">
-        <v>15.379976</v>
+        <v>10.717855</v>
       </c>
       <c r="O2">
-        <v>0.4345056280196787</v>
+        <v>0.3905787093313861</v>
       </c>
       <c r="P2">
-        <v>0.3501233765677948</v>
+        <v>0.3109096775151767</v>
       </c>
       <c r="Q2">
-        <v>0.7372570928653334</v>
+        <v>0.33318327892125</v>
       </c>
       <c r="R2">
-        <v>4.423542557192</v>
+        <v>1.332733115685</v>
       </c>
       <c r="S2">
-        <v>0.4345056280196787</v>
+        <v>0.1562769792141306</v>
       </c>
       <c r="T2">
-        <v>0.3501233765677948</v>
+        <v>0.09569666149324658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -602,19 +602,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.09587233333333334</v>
+        <v>0.0621735</v>
       </c>
       <c r="H3">
-        <v>0.287617</v>
+        <v>0.124347</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3077956989247312</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.206973333333333</v>
       </c>
       <c r="N3">
-        <v>6.620920000000001</v>
+        <v>6.62092</v>
       </c>
       <c r="O3">
-        <v>0.1247001080135215</v>
+        <v>0.1608524832743344</v>
       </c>
       <c r="P3">
-        <v>0.1507244787888645</v>
+        <v>0.192063440124333</v>
       </c>
       <c r="Q3">
-        <v>0.2115876830711111</v>
+        <v>0.13721525654</v>
       </c>
       <c r="R3">
-        <v>1.90428914764</v>
+        <v>0.82329153924</v>
       </c>
       <c r="S3">
-        <v>0.1247001080135215</v>
+        <v>0.06435972976672551</v>
       </c>
       <c r="T3">
-        <v>0.1507244787888645</v>
+        <v>0.05911630079095735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.09587233333333334</v>
+        <v>0.0621735</v>
       </c>
       <c r="H4">
-        <v>0.287617</v>
+        <v>0.124347</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3077956989247312</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7151500000000001</v>
+        <v>1.315162333333333</v>
       </c>
       <c r="N4">
-        <v>2.14545</v>
+        <v>3.945487</v>
       </c>
       <c r="O4">
-        <v>0.04040795640750977</v>
+        <v>0.09585395710514605</v>
       </c>
       <c r="P4">
-        <v>0.04884092135497321</v>
+        <v>0.1144529470505359</v>
       </c>
       <c r="Q4">
-        <v>0.06856309918333334</v>
+        <v>0.0817682453315</v>
       </c>
       <c r="R4">
-        <v>0.6170678926500001</v>
+        <v>0.490609471989</v>
       </c>
       <c r="S4">
-        <v>0.04040795640750977</v>
+        <v>0.03835274812535547</v>
       </c>
       <c r="T4">
-        <v>0.04884092135497321</v>
+        <v>0.03522812483141496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.09587233333333334</v>
+        <v>0.0621735</v>
       </c>
       <c r="H5">
-        <v>0.287617</v>
+        <v>0.124347</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3077956989247312</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.4774495</v>
+        <v>1.3299455</v>
       </c>
       <c r="N5">
-        <v>2.954899</v>
+        <v>2.659891</v>
       </c>
       <c r="O5">
-        <v>0.08347999019827604</v>
+        <v>0.09693140966566258</v>
       </c>
       <c r="P5">
-        <v>0.06726793431256332</v>
+        <v>0.0771596418346321</v>
       </c>
       <c r="Q5">
-        <v>0.1416465309471667</v>
+        <v>0.08268736654425</v>
       </c>
       <c r="R5">
-        <v>0.849879185683</v>
+        <v>0.330749466177</v>
       </c>
       <c r="S5">
-        <v>0.08347999019827604</v>
+        <v>0.038783854653646</v>
       </c>
       <c r="T5">
-        <v>0.06726793431256332</v>
+        <v>0.02374940588727251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.09587233333333334</v>
+        <v>0.0621735</v>
       </c>
       <c r="H6">
-        <v>0.287617</v>
+        <v>0.124347</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3077956989247312</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.732655333333334</v>
+        <v>2.739463</v>
       </c>
       <c r="N6">
-        <v>14.197966</v>
+        <v>8.218389</v>
       </c>
       <c r="O6">
-        <v>0.2674081387136992</v>
+        <v>0.1996623247470855</v>
       </c>
       <c r="P6">
-        <v>0.323215055492593</v>
+        <v>0.2384037359792865</v>
       </c>
       <c r="Q6">
-        <v>0.4537307096691112</v>
+        <v>0.1703220028305</v>
       </c>
       <c r="R6">
-        <v>4.083576387022</v>
+        <v>1.021932016983</v>
       </c>
       <c r="S6">
-        <v>0.2674081387136992</v>
+        <v>0.07988818701295734</v>
       </c>
       <c r="T6">
-        <v>0.323215055492593</v>
+        <v>0.07337964454201155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.09587233333333334</v>
+        <v>0.0621735</v>
       </c>
       <c r="H7">
-        <v>0.287617</v>
+        <v>0.124347</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.400116482236459</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.3077956989247312</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8760309999999999</v>
+        <v>0.7700086666666666</v>
       </c>
       <c r="N7">
-        <v>2.628093</v>
+        <v>2.310026</v>
       </c>
       <c r="O7">
-        <v>0.04949817864731481</v>
+        <v>0.05612111587638537</v>
       </c>
       <c r="P7">
-        <v>0.05982823348321126</v>
+        <v>0.06701055749603567</v>
       </c>
       <c r="Q7">
-        <v>0.08398713604233332</v>
+        <v>0.047874133837</v>
       </c>
       <c r="R7">
-        <v>0.755884224381</v>
+        <v>0.287244803022</v>
       </c>
       <c r="S7">
-        <v>0.04949817864731481</v>
+        <v>0.022454983463644</v>
       </c>
       <c r="T7">
-        <v>0.05982823348321126</v>
+        <v>0.02062556137982818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09321499999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.279645</v>
+      </c>
+      <c r="I8">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="J8">
+        <v>0.6922043010752689</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.3589275</v>
+      </c>
+      <c r="N8">
+        <v>10.717855</v>
+      </c>
+      <c r="O8">
+        <v>0.3905787093313861</v>
+      </c>
+      <c r="P8">
+        <v>0.3109096775151767</v>
+      </c>
+      <c r="Q8">
+        <v>0.4995324269124999</v>
+      </c>
+      <c r="R8">
+        <v>2.997194561475</v>
+      </c>
+      <c r="S8">
+        <v>0.2343017301172555</v>
+      </c>
+      <c r="T8">
+        <v>0.2152130160219301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09321499999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.279645</v>
+      </c>
+      <c r="I9">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="J9">
+        <v>0.6922043010752689</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.206973333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.62092</v>
+      </c>
+      <c r="O9">
+        <v>0.1608524832743344</v>
+      </c>
+      <c r="P9">
+        <v>0.192063440124333</v>
+      </c>
+      <c r="Q9">
+        <v>0.2057230192666667</v>
+      </c>
+      <c r="R9">
+        <v>1.8515071734</v>
+      </c>
+      <c r="S9">
+        <v>0.09649275350760884</v>
+      </c>
+      <c r="T9">
+        <v>0.1329471393333757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09321499999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.279645</v>
+      </c>
+      <c r="I10">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="J10">
+        <v>0.6922043010752689</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.315162333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.945487</v>
+      </c>
+      <c r="O10">
+        <v>0.09585395710514605</v>
+      </c>
+      <c r="P10">
+        <v>0.1144529470505359</v>
+      </c>
+      <c r="Q10">
+        <v>0.1225928569016667</v>
+      </c>
+      <c r="R10">
+        <v>1.103335712115</v>
+      </c>
+      <c r="S10">
+        <v>0.05750120897979059</v>
+      </c>
+      <c r="T10">
+        <v>0.07922482221912099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09321499999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.279645</v>
+      </c>
+      <c r="I11">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="J11">
+        <v>0.6922043010752689</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.3299455</v>
+      </c>
+      <c r="N11">
+        <v>2.659891</v>
+      </c>
+      <c r="O11">
+        <v>0.09693140966566258</v>
+      </c>
+      <c r="P11">
+        <v>0.0771596418346321</v>
+      </c>
+      <c r="Q11">
+        <v>0.1239708697825</v>
+      </c>
+      <c r="R11">
+        <v>0.743825218695</v>
+      </c>
+      <c r="S11">
+        <v>0.05814755501201658</v>
+      </c>
+      <c r="T11">
+        <v>0.05341023594735959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09321499999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.279645</v>
+      </c>
+      <c r="I12">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="J12">
+        <v>0.6922043010752689</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.739463</v>
+      </c>
+      <c r="N12">
+        <v>8.218389</v>
+      </c>
+      <c r="O12">
+        <v>0.1996623247470855</v>
+      </c>
+      <c r="P12">
+        <v>0.2384037359792865</v>
+      </c>
+      <c r="Q12">
+        <v>0.255359043545</v>
+      </c>
+      <c r="R12">
+        <v>2.298231391905</v>
+      </c>
+      <c r="S12">
+        <v>0.1197741377341282</v>
+      </c>
+      <c r="T12">
+        <v>0.1650240914372749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09321499999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.279645</v>
+      </c>
+      <c r="I13">
+        <v>0.5998835177635411</v>
+      </c>
+      <c r="J13">
+        <v>0.6922043010752689</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7700086666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.310026</v>
+      </c>
+      <c r="O13">
+        <v>0.05612111587638537</v>
+      </c>
+      <c r="P13">
+        <v>0.06701055749603567</v>
+      </c>
+      <c r="Q13">
+        <v>0.07177635786333332</v>
+      </c>
+      <c r="R13">
+        <v>0.6459872207699998</v>
+      </c>
+      <c r="S13">
+        <v>0.03366613241274137</v>
+      </c>
+      <c r="T13">
+        <v>0.04638499611620749</v>
       </c>
     </row>
   </sheetData>
